--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34064.38228158757</v>
+        <v>47790.74041900557</v>
       </c>
     </row>
     <row r="7">
@@ -26320,28 +26322,28 @@
         <v>80630.55414858479</v>
       </c>
       <c r="E2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239766</v>
       </c>
       <c r="F2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239768</v>
       </c>
       <c r="G2" t="n">
         <v>85740.41111239771</v>
       </c>
       <c r="H2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239768</v>
       </c>
       <c r="I2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239769</v>
       </c>
       <c r="J2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239768</v>
       </c>
       <c r="K2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239769</v>
       </c>
       <c r="L2" t="n">
-        <v>85740.41111239771</v>
+        <v>85740.41111239769</v>
       </c>
       <c r="M2" t="n">
         <v>85740.41111239771</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>75255.18387201248</v>
       </c>
       <c r="E4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="F4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="G4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="H4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="I4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="J4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="K4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="L4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="M4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="N4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="O4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="P4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
     </row>
     <row r="5">
@@ -26528,40 +26530,40 @@
         <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>-95567.80899513043</v>
+        <v>-95567.80899513054</v>
       </c>
       <c r="F6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486952</v>
       </c>
       <c r="G6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486955</v>
       </c>
       <c r="H6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486952</v>
       </c>
       <c r="I6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486954</v>
       </c>
       <c r="J6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486952</v>
       </c>
       <c r="K6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486954</v>
       </c>
       <c r="L6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486954</v>
       </c>
       <c r="M6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486955</v>
       </c>
       <c r="N6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486955</v>
       </c>
       <c r="O6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486955</v>
       </c>
       <c r="P6" t="n">
-        <v>37532.19100486956</v>
+        <v>37532.19100486955</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47790.74041900557</v>
+        <v>-77319.15837847101</v>
       </c>
     </row>
     <row r="7">
@@ -26319,31 +26319,31 @@
         <v>80630.55414858479</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E2" t="n">
-        <v>85740.41111239766</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="F2" t="n">
-        <v>85740.41111239768</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="G2" t="n">
         <v>85740.41111239771</v>
       </c>
       <c r="H2" t="n">
-        <v>85740.41111239768</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="I2" t="n">
-        <v>85740.41111239769</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="J2" t="n">
-        <v>85740.41111239768</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="K2" t="n">
-        <v>85740.41111239769</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="L2" t="n">
-        <v>85740.41111239769</v>
+        <v>85740.41111239771</v>
       </c>
       <c r="M2" t="n">
         <v>85740.41111239771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346246</v>
       </c>
       <c r="E6" t="n">
-        <v>-95567.80899513054</v>
+        <v>-110377.8258342444</v>
       </c>
       <c r="F6" t="n">
-        <v>37532.19100486952</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="G6" t="n">
-        <v>37532.19100486955</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="H6" t="n">
-        <v>37532.19100486952</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="I6" t="n">
-        <v>37532.19100486954</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="J6" t="n">
-        <v>37532.19100486952</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="K6" t="n">
-        <v>37532.19100486954</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="L6" t="n">
-        <v>37532.19100486954</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="M6" t="n">
-        <v>37532.19100486955</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="N6" t="n">
-        <v>37532.19100486955</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="O6" t="n">
-        <v>37532.19100486955</v>
+        <v>22722.17416575564</v>
       </c>
       <c r="P6" t="n">
-        <v>37532.19100486955</v>
+        <v>22722.17416575564</v>
       </c>
     </row>
   </sheetData>
